--- a/datenRF4/SFU/i = 73,96 - Abtriebswelle 14 - Geber AV Y2/L1_73,96_14_AVY2.xlsx
+++ b/datenRF4/SFU/i = 73,96 - Abtriebswelle 14 - Geber AV Y2/L1_73,96_14_AVY2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 73^J96 - Abtriebswelle 14 - Geber AV Y2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{8CDE6B61-AE9A-4879-B5EE-EB2BE3A94AC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{481A61F3-5621-456B-ACC4-151BEF5B9959}"/>
   <bookViews>
-    <workbookView xWindow="17385" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17390" yWindow="1550" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -428,11 +422,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -649,6 +643,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,39 +704,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +773,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -808,7 +808,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -985,83 +985,83 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="B9" activeCellId="18" sqref="B64 B63 B58 B57 B52 B51 B43 B32 B31 B30 B26 B25 B24 B20 B19 B18 B14 B13 B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="41.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="63.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="1" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="41.453125" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" customWidth="1"/>
+    <col min="12" max="12" width="63.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:20" ht="21">
+      <c r="A1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="32" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="27" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="28"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="12"/>
@@ -1077,7 +1077,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>59</v>
       </c>
@@ -1139,10 +1139,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="43.5">
       <c r="A4" s="14"/>
-      <c r="B4" s="40"/>
-      <c r="F4" s="41"/>
+      <c r="B4" s="30"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="21"/>
       <c r="H4" s="14">
         <v>0</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="14">
@@ -1195,7 +1195,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" thickBot="1">
       <c r="A6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="14">
@@ -1220,26 +1220,26 @@
       <c r="S6" s="1"/>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
-        <v>1</v>
-      </c>
-      <c r="B7" s="43">
-        <v>1</v>
-      </c>
-      <c r="C7" s="44">
-        <v>1</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="44" t="s">
+    <row r="7" spans="1:20" ht="29">
+      <c r="A7" s="32">
+        <v>1</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="37"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="14">
         <v>2</v>
       </c>
@@ -1272,11 +1272,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="17">
         <v>2</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="36">
         <v>2</v>
       </c>
       <c r="C8" s="18">
@@ -1288,10 +1288,10 @@
       <c r="E8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="14"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1306,11 +1306,13 @@
       <c r="S8" s="1"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="54">
+        <v>3</v>
+      </c>
       <c r="C9" s="18">
         <v>1</v>
       </c>
@@ -1340,10 +1342,10 @@
       <c r="S9" s="1"/>
       <c r="T9" s="15"/>
     </row>
-    <row r="10" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="44" thickBot="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="40"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="30"/>
+      <c r="E10" s="39"/>
       <c r="G10" s="15"/>
       <c r="H10" s="14">
         <v>3</v>
@@ -1367,26 +1369,26 @@
       <c r="S10" s="1"/>
       <c r="T10" s="15"/>
     </row>
-    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
-        <v>1</v>
-      </c>
-      <c r="B11" s="43">
-        <v>1</v>
-      </c>
-      <c r="C11" s="44">
-        <v>1</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="44" t="s">
+    <row r="11" spans="1:20" ht="43.5">
+      <c r="A11" s="32">
+        <v>1</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="37"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="14">
         <v>4</v>
       </c>
@@ -1419,11 +1421,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="17">
         <v>2</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="36">
         <v>2</v>
       </c>
       <c r="C12" s="18">
@@ -1435,10 +1437,10 @@
       <c r="E12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="14"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1453,18 +1455,20 @@
       <c r="S12" s="1"/>
       <c r="T12" s="15"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="14">
         <v>1</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="55">
+        <v>3</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="39" t="s">
         <v>67</v>
       </c>
       <c r="F13" t="s">
@@ -1487,11 +1491,13 @@
       <c r="S13" s="1"/>
       <c r="T13" s="15"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="17">
         <v>2</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="54">
+        <v>3</v>
+      </c>
       <c r="C14" s="18">
         <v>1</v>
       </c>
@@ -1521,7 +1527,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="15"/>
     </row>
-    <row r="15" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="29.5" thickBot="1">
       <c r="A15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="14">
@@ -1546,26 +1552,26 @@
       <c r="S15" s="1"/>
       <c r="T15" s="15"/>
     </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
-        <v>1</v>
-      </c>
-      <c r="B16" s="43">
-        <v>1</v>
-      </c>
-      <c r="C16" s="44">
-        <v>1</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="44" t="s">
+    <row r="16" spans="1:20" ht="29">
+      <c r="A16" s="32">
+        <v>1</v>
+      </c>
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="14">
         <v>5</v>
       </c>
@@ -1598,11 +1604,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="17">
         <v>2</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="36">
         <v>2</v>
       </c>
       <c r="C17" s="18">
@@ -1614,10 +1620,10 @@
       <c r="E17" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="14"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1632,18 +1638,20 @@
       <c r="S17" s="1"/>
       <c r="T17" s="15"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="55">
+        <v>3</v>
+      </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="39" t="s">
         <v>67</v>
       </c>
       <c r="F18" t="s">
@@ -1666,9 +1674,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="15"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="14">
         <v>2</v>
+      </c>
+      <c r="B19" s="55">
+        <v>3</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1699,11 +1710,13 @@
       <c r="S19" s="1"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="29.5" thickBot="1">
       <c r="A20" s="17">
         <v>3</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="54">
+        <v>3</v>
+      </c>
       <c r="C20" s="18">
         <v>8</v>
       </c>
@@ -1733,7 +1746,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="15"/>
     </row>
-    <row r="21" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="29.5" thickBot="1">
       <c r="A21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="14">
@@ -1758,26 +1771,26 @@
       <c r="S21" s="1"/>
       <c r="T21" s="15"/>
     </row>
-    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
-        <v>1</v>
-      </c>
-      <c r="B22" s="43">
-        <v>1</v>
-      </c>
-      <c r="C22" s="44">
-        <v>1</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="44" t="s">
+    <row r="22" spans="1:20" ht="29">
+      <c r="A22" s="32">
+        <v>1</v>
+      </c>
+      <c r="B22" s="33">
+        <v>1</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="37"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="14">
         <v>6</v>
       </c>
@@ -1810,11 +1823,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15" thickBot="1">
       <c r="A23" s="17">
         <v>2</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="36">
         <v>2</v>
       </c>
       <c r="C23" s="18">
@@ -1826,10 +1839,10 @@
       <c r="E23" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="38"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="14"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1844,18 +1857,20 @@
       <c r="S23" s="1"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="14">
         <v>1</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="55">
+        <v>3</v>
+      </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="39" t="s">
         <v>67</v>
       </c>
       <c r="F24" t="s">
@@ -1878,9 +1893,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="14">
         <v>2</v>
+      </c>
+      <c r="B25" s="55">
+        <v>3</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1911,11 +1929,13 @@
       <c r="S25" s="1"/>
       <c r="T25" s="15"/>
     </row>
-    <row r="26" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="29.5" thickBot="1">
       <c r="A26" s="17">
         <v>3</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="54">
+        <v>3</v>
+      </c>
       <c r="C26" s="18">
         <v>8</v>
       </c>
@@ -1945,7 +1965,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="15"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" thickBot="1">
       <c r="A27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="14">
@@ -1970,26 +1990,26 @@
       <c r="S27" s="1"/>
       <c r="T27" s="15"/>
     </row>
-    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="42">
-        <v>1</v>
-      </c>
-      <c r="B28" s="43">
-        <v>1</v>
-      </c>
-      <c r="C28" s="44">
-        <v>1</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="44" t="s">
+    <row r="28" spans="1:20" ht="29">
+      <c r="A28" s="32">
+        <v>1</v>
+      </c>
+      <c r="B28" s="33">
+        <v>1</v>
+      </c>
+      <c r="C28" s="34">
+        <v>1</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="14">
         <v>7</v>
       </c>
@@ -2024,11 +2044,11 @@
       </c>
       <c r="T28" s="15"/>
     </row>
-    <row r="29" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="29.5" thickBot="1">
       <c r="A29" s="17">
         <v>2</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="36">
         <v>2</v>
       </c>
       <c r="C29" s="18">
@@ -2040,10 +2060,10 @@
       <c r="E29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="38"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="14"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2064,18 +2084,20 @@
       </c>
       <c r="T29" s="15"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="14">
         <v>1</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="55">
+        <v>3</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="39" t="s">
         <v>67</v>
       </c>
       <c r="F30" t="s">
@@ -2098,9 +2120,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="15"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="14">
         <v>2</v>
+      </c>
+      <c r="B31" s="55">
+        <v>3</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2131,11 +2156,13 @@
       <c r="S31" s="1"/>
       <c r="T31" s="15"/>
     </row>
-    <row r="32" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="29.5" thickBot="1">
       <c r="A32" s="17">
         <v>3</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="54">
+        <v>3</v>
+      </c>
       <c r="C32" s="18">
         <v>8</v>
       </c>
@@ -2165,7 +2192,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="15"/>
     </row>
-    <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="43.5">
       <c r="A33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="14">
@@ -2190,7 +2217,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="15"/>
     </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="14">
@@ -2215,7 +2242,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="15"/>
     </row>
-    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="29">
       <c r="A35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="14">
@@ -2240,7 +2267,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="15"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="14">
@@ -2265,10 +2292,10 @@
       <c r="S36" s="1"/>
       <c r="T36" s="15"/>
     </row>
-    <row r="37" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="43.5">
       <c r="A37" s="14"/>
-      <c r="B37" s="40"/>
-      <c r="F37" s="41"/>
+      <c r="B37" s="30"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="21"/>
       <c r="H37" s="14">
         <v>12</v>
@@ -2292,10 +2319,10 @@
       <c r="S37" s="1"/>
       <c r="T37" s="15"/>
     </row>
-    <row r="38" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="43.5">
       <c r="A38" s="14"/>
-      <c r="B38" s="40"/>
-      <c r="F38" s="41"/>
+      <c r="B38" s="30"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="21"/>
       <c r="H38" s="14">
         <v>12</v>
@@ -2319,14 +2346,14 @@
       <c r="S38" s="1"/>
       <c r="T38" s="15"/>
     </row>
-    <row r="39" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="44" thickBot="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="38"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="14">
         <v>12</v>
       </c>
@@ -2349,26 +2376,26 @@
       <c r="S39" s="1"/>
       <c r="T39" s="15"/>
     </row>
-    <row r="40" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="42">
-        <v>1</v>
-      </c>
-      <c r="B40" s="43">
-        <v>1</v>
-      </c>
-      <c r="C40" s="44">
-        <v>1</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="44" t="s">
+    <row r="40" spans="1:20" ht="43.5">
+      <c r="A40" s="32">
+        <v>1</v>
+      </c>
+      <c r="B40" s="33">
+        <v>1</v>
+      </c>
+      <c r="C40" s="34">
+        <v>1</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="37"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="14">
         <v>12</v>
       </c>
@@ -2401,11 +2428,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="14">
         <v>2</v>
       </c>
-      <c r="B41" s="50">
+      <c r="B41" s="40">
         <v>2</v>
       </c>
       <c r="C41">
@@ -2417,7 +2444,7 @@
       <c r="E41" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="F41" s="31" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="21"/>
@@ -2435,11 +2462,11 @@
       <c r="S41" s="1"/>
       <c r="T41" s="15"/>
     </row>
-    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="15" thickBot="1">
       <c r="A42" s="14">
         <v>3</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42" s="40">
         <v>2</v>
       </c>
       <c r="C42">
@@ -2451,7 +2478,7 @@
       <c r="E42" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="41" t="s">
+      <c r="F42" s="31" t="s">
         <v>91</v>
       </c>
       <c r="G42" s="21"/>
@@ -2469,24 +2496,26 @@
       <c r="S42" s="1"/>
       <c r="T42" s="15"/>
     </row>
-    <row r="43" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51">
-        <v>1</v>
-      </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53">
-        <v>1</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="54" t="s">
+    <row r="43" spans="1:20" ht="29.5" thickBot="1">
+      <c r="A43" s="41">
+        <v>1</v>
+      </c>
+      <c r="B43" s="56">
+        <v>3</v>
+      </c>
+      <c r="C43" s="42">
+        <v>1</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="39">
+      <c r="G43" s="29">
         <v>11111</v>
       </c>
       <c r="H43" s="14"/>
@@ -2503,7 +2532,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="15"/>
     </row>
-    <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="43.5">
       <c r="A44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="14">
@@ -2528,7 +2557,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="15"/>
     </row>
-    <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="43.5">
       <c r="A45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="14">
@@ -2553,7 +2582,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="15"/>
     </row>
-    <row r="46" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="43.5">
       <c r="A46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="14">
@@ -2578,7 +2607,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="15"/>
     </row>
-    <row r="47" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="44" thickBot="1">
       <c r="A47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="14">
@@ -2603,26 +2632,26 @@
       <c r="S47" s="1"/>
       <c r="T47" s="15"/>
     </row>
-    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="42">
-        <v>1</v>
-      </c>
-      <c r="B48" s="43">
-        <v>1</v>
-      </c>
-      <c r="C48" s="44">
-        <v>1</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="44" t="s">
+    <row r="48" spans="1:20" ht="29">
+      <c r="A48" s="32">
+        <v>1</v>
+      </c>
+      <c r="B48" s="33">
+        <v>1</v>
+      </c>
+      <c r="C48" s="34">
+        <v>1</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="45" t="s">
+      <c r="F48" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="37"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="14">
         <v>17</v>
       </c>
@@ -2655,11 +2684,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="14">
         <v>2</v>
       </c>
-      <c r="B49" s="50">
+      <c r="B49" s="40">
         <v>2</v>
       </c>
       <c r="C49">
@@ -2671,7 +2700,7 @@
       <c r="E49" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="41" t="s">
+      <c r="F49" s="31" t="s">
         <v>66</v>
       </c>
       <c r="G49" s="21"/>
@@ -2689,11 +2718,11 @@
       <c r="S49" s="1"/>
       <c r="T49" s="15"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="15" thickBot="1">
       <c r="A50" s="17">
         <v>3</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="36">
         <v>2</v>
       </c>
       <c r="C50" s="18">
@@ -2705,10 +2734,10 @@
       <c r="E50" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="47" t="s">
+      <c r="F50" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="38"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="14"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2723,18 +2752,20 @@
       <c r="S50" s="1"/>
       <c r="T50" s="15"/>
     </row>
-    <row r="51" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="29">
       <c r="A51" s="14">
         <v>1</v>
       </c>
-      <c r="B51" s="40"/>
+      <c r="B51" s="55">
+        <v>3</v>
+      </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="39" t="s">
         <v>93</v>
       </c>
       <c r="F51" t="s">
@@ -2757,11 +2788,13 @@
       <c r="S51" s="1"/>
       <c r="T51" s="15"/>
     </row>
-    <row r="52" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="29.5" thickBot="1">
       <c r="A52" s="17">
         <v>2</v>
       </c>
-      <c r="B52" s="46"/>
+      <c r="B52" s="54">
+        <v>3</v>
+      </c>
       <c r="C52" s="18">
         <v>2</v>
       </c>
@@ -2791,7 +2824,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="15"/>
     </row>
-    <row r="53" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="29.5" thickBot="1">
       <c r="A53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="14">
@@ -2816,26 +2849,26 @@
       <c r="S53" s="1"/>
       <c r="T53" s="15"/>
     </row>
-    <row r="54" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="42">
-        <v>1</v>
-      </c>
-      <c r="B54" s="43">
-        <v>1</v>
-      </c>
-      <c r="C54" s="44">
-        <v>1</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="44" t="s">
+    <row r="54" spans="1:20" ht="43.5">
+      <c r="A54" s="32">
+        <v>1</v>
+      </c>
+      <c r="B54" s="33">
+        <v>1</v>
+      </c>
+      <c r="C54" s="34">
+        <v>1</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F54" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G54" s="37"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="14">
         <v>19</v>
       </c>
@@ -2868,11 +2901,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="14">
         <v>2</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="40">
         <v>2</v>
       </c>
       <c r="C55">
@@ -2884,7 +2917,7 @@
       <c r="E55" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="31" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="21"/>
@@ -2902,11 +2935,11 @@
       <c r="S55" s="1"/>
       <c r="T55" s="15"/>
     </row>
-    <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="15" thickBot="1">
       <c r="A56" s="17">
         <v>3</v>
       </c>
-      <c r="B56" s="46">
+      <c r="B56" s="36">
         <v>2</v>
       </c>
       <c r="C56" s="18">
@@ -2918,10 +2951,10 @@
       <c r="E56" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="38"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="14"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2936,18 +2969,20 @@
       <c r="S56" s="1"/>
       <c r="T56" s="15"/>
     </row>
-    <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="29">
       <c r="A57" s="14">
         <v>1</v>
       </c>
-      <c r="B57" s="40"/>
+      <c r="B57" s="55">
+        <v>3</v>
+      </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="39" t="s">
         <v>93</v>
       </c>
       <c r="F57" t="s">
@@ -2970,11 +3005,13 @@
       <c r="S57" s="1"/>
       <c r="T57" s="15"/>
     </row>
-    <row r="58" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="29.5" thickBot="1">
       <c r="A58" s="17">
         <v>2</v>
       </c>
-      <c r="B58" s="46"/>
+      <c r="B58" s="54">
+        <v>3</v>
+      </c>
       <c r="C58" s="18">
         <v>2</v>
       </c>
@@ -3004,7 +3041,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="15"/>
     </row>
-    <row r="59" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="44" thickBot="1">
       <c r="A59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="14">
@@ -3029,26 +3066,26 @@
       <c r="S59" s="1"/>
       <c r="T59" s="15"/>
     </row>
-    <row r="60" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="42">
-        <v>1</v>
-      </c>
-      <c r="B60" s="43">
-        <v>1</v>
-      </c>
-      <c r="C60" s="44">
-        <v>1</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="44" t="s">
+    <row r="60" spans="1:20" ht="43.5">
+      <c r="A60" s="32">
+        <v>1</v>
+      </c>
+      <c r="B60" s="33">
+        <v>1</v>
+      </c>
+      <c r="C60" s="34">
+        <v>1</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="45" t="s">
+      <c r="F60" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="37"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="14">
         <v>20</v>
       </c>
@@ -3081,11 +3118,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="14">
         <v>2</v>
       </c>
-      <c r="B61" s="50">
+      <c r="B61" s="40">
         <v>2</v>
       </c>
       <c r="C61">
@@ -3097,7 +3134,7 @@
       <c r="E61" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="31" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="21"/>
@@ -3115,11 +3152,11 @@
       <c r="S61" s="1"/>
       <c r="T61" s="15"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="15" thickBot="1">
       <c r="A62" s="17">
         <v>3</v>
       </c>
-      <c r="B62" s="46">
+      <c r="B62" s="36">
         <v>2</v>
       </c>
       <c r="C62" s="18">
@@ -3131,10 +3168,10 @@
       <c r="E62" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="47" t="s">
+      <c r="F62" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="38"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="14"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3149,18 +3186,20 @@
       <c r="S62" s="1"/>
       <c r="T62" s="15"/>
     </row>
-    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="29">
       <c r="A63" s="14">
         <v>1</v>
       </c>
-      <c r="B63" s="40"/>
+      <c r="B63" s="55">
+        <v>3</v>
+      </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="39" t="s">
         <v>93</v>
       </c>
       <c r="F63" t="s">
@@ -3183,11 +3222,13 @@
       <c r="S63" s="1"/>
       <c r="T63" s="15"/>
     </row>
-    <row r="64" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="29.5" thickBot="1">
       <c r="A64" s="17">
         <v>2</v>
       </c>
-      <c r="B64" s="46"/>
+      <c r="B64" s="54">
+        <v>3</v>
+      </c>
       <c r="C64" s="18">
         <v>2</v>
       </c>
@@ -3217,10 +3258,10 @@
       <c r="S64" s="1"/>
       <c r="T64" s="15"/>
     </row>
-    <row r="65" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="43.5">
       <c r="A65" s="14"/>
-      <c r="B65" s="50"/>
-      <c r="E65" s="49"/>
+      <c r="B65" s="40"/>
+      <c r="E65" s="39"/>
       <c r="G65" s="15"/>
       <c r="H65" s="14">
         <v>20</v>
@@ -3244,7 +3285,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="15"/>
     </row>
-    <row r="66" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="73" thickBot="1">
       <c r="A66" s="17"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
